--- a/Aircraft_info copy.xlsx
+++ b/Aircraft_info copy.xlsx
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -107,10 +113,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -479,7 +485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -502,7 +508,7 @@
         <v>1400</v>
       </c>
       <c r="H2" s="3">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="I2" s="3">
         <v>300</v>

--- a/Aircraft_info copy.xlsx
+++ b/Aircraft_info copy.xlsx
@@ -60,19 +60,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -108,15 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -433,21 +424,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,37 +480,37 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>550</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>45</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>25</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
+        <v>1800</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1400</v>
+      </c>
+      <c r="H2" s="2">
         <v>1500</v>
       </c>
-      <c r="G2" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>300</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>750</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Aircraft_info copy.xlsx
+++ b/Aircraft_info copy.xlsx
@@ -499,7 +499,7 @@
         <v>1400</v>
       </c>
       <c r="H2" s="2">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="I2" s="2">
         <v>300</v>
